--- a/заказы/статистика филиалы/2024/01,24/03,01,24 КИ/дв 03,01,24 бррсч.xlsx
+++ b/заказы/статистика филиалы/2024/01,24/03,01,24 КИ/дв 03,01,24 бррсч.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\01,24\03,01,24 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC92BDB6-B99D-4241-B028-5045C8EBC934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00941E6D-4083-4955-9F3C-DA482C941E0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,6 +478,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -7544,7 +7546,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R13" sqref="R13"/>
+      <selection pane="bottomLeft" activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -7560,7 +7562,7 @@
     <col min="18" max="18" width="19.5" style="2" customWidth="1"/>
     <col min="19" max="20" width="5.33203125" style="2" customWidth="1"/>
     <col min="21" max="23" width="7.33203125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="42.5" style="2" customWidth="1"/>
+    <col min="24" max="24" width="25" style="2" customWidth="1"/>
     <col min="25" max="16384" width="10.5" style="2"/>
   </cols>
   <sheetData>
